--- a/app/data/Rounds_Data.xlsx
+++ b/app/data/Rounds_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meridianenergy-my.sharepoint.com/personal/russell_chubb_meridianenergy_co_nz/Documents/Documents/Programming/Personal/Golf_Stats_App/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meridianenergy-my.sharepoint.com/personal/russell_chubb_meridianenergy_co_nz/Documents/Documents/Programming/Personal/Golf_Stats_App/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="8_{DD1AC3CF-067B-49BA-A9FB-AFED6EEA5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14F8D898-29CF-4E95-BD2E-F90BD38696CA}"/>
+  <xr:revisionPtr revIDLastSave="695" documentId="8_{DD1AC3CF-067B-49BA-A9FB-AFED6EEA5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44D70ED5-C2BD-4594-B61D-7604A2546502}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{44696444-B29C-42B1-BFB2-5157012ADE0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{44696444-B29C-42B1-BFB2-5157012ADE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Rounds" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="11">
   <si>
     <t>Course</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Hayden</t>
+  </si>
+  <si>
+    <t>Masterton Golf Course</t>
+  </si>
+  <si>
+    <t>Olivia</t>
   </si>
 </sst>
 </file>
@@ -129,10 +135,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,16 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9DF30F-3CCE-40FE-9B1F-B144B1AB64E6}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K219" sqref="K219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -2933,6 +2935,1410 @@
         <v>45948</v>
       </c>
     </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>8</v>
+      </c>
+      <c r="E150" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>9</v>
+      </c>
+      <c r="E171" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+      <c r="E172" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="E175" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
+      <c r="E176" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181">
+        <v>10</v>
+      </c>
+      <c r="E181" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
+      </c>
+      <c r="E182" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>8</v>
+      </c>
+      <c r="E191" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>7</v>
+      </c>
+      <c r="E193" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>6</v>
+      </c>
+      <c r="E195" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196">
+        <v>15</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197">
+        <v>16</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198">
+        <v>17</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201">
+        <v>9</v>
+      </c>
+      <c r="E201" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>8</v>
+      </c>
+      <c r="E203" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204">
+        <v>6</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205">
+        <v>6</v>
+      </c>
+      <c r="E205" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207">
+        <v>6</v>
+      </c>
+      <c r="E207" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208">
+        <v>9</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208">
+        <v>8</v>
+      </c>
+      <c r="E208" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>4</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>10</v>
+      </c>
+      <c r="E211" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>10</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214">
+        <v>15</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>11</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215">
+        <v>16</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215">
+        <v>7</v>
+      </c>
+      <c r="E215" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216">
+        <v>6</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217">
+        <v>18</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218">
+        <v>14</v>
+      </c>
+      <c r="E218" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220">
+        <v>6</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>9</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221">
+        <v>6</v>
+      </c>
+      <c r="E221" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222">
+        <v>11</v>
+      </c>
+      <c r="E222" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223">
+        <v>6</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224">
+        <v>10</v>
+      </c>
+      <c r="E224" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225">
+        <v>8</v>
+      </c>
+      <c r="E225" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226">
+        <v>9</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E82" xr:uid="{FB9DF30F-3CCE-40FE-9B1F-B144B1AB64E6}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E127">
